--- a/data/trans_orig/P78DS1_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P78DS1_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EFF478D0-F9C4-4466-81B0-3010D84C0411}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{35CB6B81-FE44-4605-9E13-025E473AFC52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{072FC2A9-0ACF-44A1-AC9D-7D5861FD20DE}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F88E103D-8B67-4D0E-901A-C0897D7F1F34}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="237">
   <si>
     <t>Población según si en los últimos 12 meses ha tenido algún retraso en el pago de recibos como la hipoteca, el alquiler, o suministros como la luz, el agua, impuestos / respuesta 1 en 2023 (Tasa respuesta: 94,89%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>84,2%</t>
   </si>
   <si>
-    <t>80,8%</t>
-  </si>
-  <si>
-    <t>87,15%</t>
+    <t>80,97%</t>
+  </si>
+  <si>
+    <t>87,37%</t>
   </si>
   <si>
     <t>81,42%</t>
   </si>
   <si>
-    <t>79,13%</t>
-  </si>
-  <si>
-    <t>83,65%</t>
+    <t>79,09%</t>
+  </si>
+  <si>
+    <t>83,48%</t>
   </si>
   <si>
     <t>82,51%</t>
   </si>
   <si>
-    <t>80,66%</t>
-  </si>
-  <si>
-    <t>84,33%</t>
+    <t>80,74%</t>
+  </si>
+  <si>
+    <t>84,29%</t>
   </si>
   <si>
     <t>Otros</t>
@@ -104,28 +104,28 @@
     <t>1,68%</t>
   </si>
   <si>
-    <t>0,81%</t>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
   </si>
   <si>
     <t>3,08%</t>
   </si>
   <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
+    <t>5,5%</t>
   </si>
   <si>
     <t>3,13%</t>
   </si>
   <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
   </si>
   <si>
     <t>Actividades extraescolares</t>
@@ -152,580 +152,598 @@
     <t>0,18%</t>
   </si>
   <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>Pagos de recibos de agua, gas, calefacción, electricidad, comunidad</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>Impuestos (IBI, los relacionados con vehículos, etc)</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>Cuotas de seguros</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>Cuotas de compras aplazadas</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>Alquiler</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>Hipoteca</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
     <t>0,6%</t>
   </si>
   <si>
-    <t>0,11%</t>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>86,4%</t>
+  </si>
+  <si>
+    <t>84,34%</t>
+  </si>
+  <si>
+    <t>88,25%</t>
+  </si>
+  <si>
+    <t>86,64%</t>
+  </si>
+  <si>
+    <t>90,33%</t>
+  </si>
+  <si>
+    <t>87,34%</t>
+  </si>
+  <si>
+    <t>86,03%</t>
+  </si>
+  <si>
+    <t>88,68%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
   </si>
   <si>
     <t>0,37%</t>
   </si>
   <si>
-    <t>Pagos de recibos de agua, gas, calefacción, electricidad, comunidad</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>Impuestos (IBI, los relacionados con vehículos, etc)</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>Cuotas de seguros</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>87,74%</t>
+  </si>
+  <si>
+    <t>86,3%</t>
+  </si>
+  <si>
+    <t>88,99%</t>
+  </si>
+  <si>
+    <t>87,86%</t>
+  </si>
+  <si>
+    <t>86,71%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
+  </si>
+  <si>
+    <t>87,8%</t>
+  </si>
+  <si>
+    <t>86,91%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>0,01%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
   </si>
   <si>
     <t>0,47%</t>
   </si>
   <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>Cuotas de compras aplazadas</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>Alquiler</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>Hipoteca</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>86,4%</t>
-  </si>
-  <si>
-    <t>84,62%</t>
-  </si>
-  <si>
-    <t>88,26%</t>
-  </si>
-  <si>
-    <t>88,25%</t>
-  </si>
-  <si>
-    <t>86,72%</t>
-  </si>
-  <si>
-    <t>90,3%</t>
-  </si>
-  <si>
-    <t>87,34%</t>
-  </si>
-  <si>
-    <t>86,18%</t>
-  </si>
-  <si>
-    <t>88,8%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>91,77%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
   </si>
   <si>
     <t>1,64%</t>
   </si>
   <si>
-    <t>87,74%</t>
-  </si>
-  <si>
-    <t>86,21%</t>
-  </si>
-  <si>
-    <t>89,02%</t>
-  </si>
-  <si>
-    <t>87,86%</t>
-  </si>
-  <si>
-    <t>89,25%</t>
-  </si>
-  <si>
-    <t>87,8%</t>
-  </si>
-  <si>
-    <t>86,93%</t>
-  </si>
-  <si>
-    <t>88,76%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>0,01%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
     <t>0,94%</t>
   </si>
   <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
     <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1140,7 +1158,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E881BA4E-0DB8-485A-A840-B25B481306FE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D023601E-9097-4303-B33A-9D15543871BD}">
   <dimension ref="A1:Q48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1522,10 +1540,10 @@
         <v>52</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="H9" s="7">
         <v>16</v>
@@ -1534,13 +1552,13 @@
         <v>11248</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="M9" s="7">
         <v>24</v>
@@ -1549,19 +1567,19 @@
         <v>17283</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C10" s="7">
         <v>1</v>
@@ -1570,13 +1588,13 @@
         <v>1072</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -1585,13 +1603,13 @@
         <v>648</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -1600,19 +1618,19 @@
         <v>1720</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C11" s="7">
         <v>1</v>
@@ -1627,7 +1645,7 @@
         <v>31</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H11" s="7">
         <v>3</v>
@@ -1636,13 +1654,13 @@
         <v>2174</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="M11" s="7">
         <v>4</v>
@@ -1651,19 +1669,19 @@
         <v>2915</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C12" s="7">
         <v>4</v>
@@ -1672,13 +1690,13 @@
         <v>4101</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>35</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="H12" s="7">
         <v>12</v>
@@ -1687,13 +1705,13 @@
         <v>7460</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="K12" s="7" t="s">
-        <v>75</v>
-      </c>
       <c r="L12" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M12" s="7">
         <v>16</v>
@@ -1702,19 +1720,19 @@
         <v>11561</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C13" s="7">
         <v>1</v>
@@ -1723,13 +1741,13 @@
         <v>1118</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -1738,13 +1756,13 @@
         <v>1282</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="M13" s="7">
         <v>3</v>
@@ -1753,13 +1771,13 @@
         <v>2399</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1774,13 +1792,13 @@
         <v>490359</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H14" s="7">
         <v>1315</v>
@@ -1789,13 +1807,13 @@
         <v>765178</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M14" s="7">
         <v>1943</v>
@@ -1804,18 +1822,18 @@
         <v>1255537</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>10</v>
@@ -1827,13 +1845,13 @@
         <v>1786629</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H15" s="7">
         <v>2487</v>
@@ -1842,13 +1860,13 @@
         <v>1865424</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M15" s="7">
         <v>4147</v>
@@ -1857,13 +1875,13 @@
         <v>3652052</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1878,13 +1896,13 @@
         <v>58297</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H16" s="7">
         <v>45</v>
@@ -1893,13 +1911,13 @@
         <v>33657</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="M16" s="7">
         <v>91</v>
@@ -1908,13 +1926,13 @@
         <v>91954</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1944,13 +1962,13 @@
         <v>785</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="M17" s="7">
         <v>1</v>
@@ -1959,13 +1977,13 @@
         <v>785</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>39</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1980,13 +1998,13 @@
         <v>4823</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="H18" s="7">
         <v>7</v>
@@ -1995,13 +2013,13 @@
         <v>5716</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>39</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="M18" s="7">
         <v>11</v>
@@ -2010,13 +2028,13 @@
         <v>10539</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2031,13 +2049,13 @@
         <v>127505</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H19" s="7">
         <v>153</v>
@@ -2046,13 +2064,13 @@
         <v>135157</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M19" s="7">
         <v>274</v>
@@ -2061,13 +2079,13 @@
         <v>262662</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2082,13 +2100,13 @@
         <v>21494</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>124</v>
+        <v>53</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="H20" s="7">
         <v>16</v>
@@ -2097,13 +2115,13 @@
         <v>12871</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M20" s="7">
         <v>33</v>
@@ -2112,10 +2130,10 @@
         <v>34365</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>128</v>
+        <v>22</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>108</v>
+        <v>38</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>129</v>
@@ -2124,7 +2142,7 @@
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C21" s="7">
         <v>2</v>
@@ -2139,7 +2157,7 @@
         <v>31</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="H21" s="7">
         <v>8</v>
@@ -2148,13 +2166,13 @@
         <v>7617</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>130</v>
+        <v>34</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M21" s="7">
         <v>10</v>
@@ -2163,19 +2181,19 @@
         <v>10920</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>135</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C22" s="7">
         <v>3</v>
@@ -2184,13 +2202,13 @@
         <v>7811</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="H22" s="7">
         <v>3</v>
@@ -2202,10 +2220,10 @@
         <v>130</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="M22" s="7">
         <v>6</v>
@@ -2214,19 +2232,19 @@
         <v>11247</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>35</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C23" s="7">
         <v>34</v>
@@ -2235,13 +2253,13 @@
         <v>35735</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="F23" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="H23" s="7">
         <v>37</v>
@@ -2250,13 +2268,13 @@
         <v>31404</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="M23" s="7">
         <v>71</v>
@@ -2265,19 +2283,19 @@
         <v>67139</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C24" s="7">
         <v>20</v>
@@ -2286,13 +2304,13 @@
         <v>22155</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>100</v>
+        <v>146</v>
       </c>
       <c r="H24" s="7">
         <v>22</v>
@@ -2301,10 +2319,10 @@
         <v>17804</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>151</v>
@@ -2319,10 +2337,10 @@
         <v>152</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>86</v>
+        <v>139</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2337,13 +2355,13 @@
         <v>2067752</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H25" s="7">
         <v>2779</v>
@@ -2352,13 +2370,13 @@
         <v>2113870</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M25" s="7">
         <v>4686</v>
@@ -2367,18 +2385,18 @@
         <v>4181622</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>10</v>
@@ -2390,13 +2408,13 @@
         <v>628477</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H26" s="7">
         <v>925</v>
@@ -2405,13 +2423,13 @@
         <v>651014</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M26" s="7">
         <v>1564</v>
@@ -2420,13 +2438,13 @@
         <v>1279491</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2441,13 +2459,13 @@
         <v>8593</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>78</v>
+        <v>150</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="H27" s="7">
         <v>7</v>
@@ -2456,13 +2474,13 @@
         <v>6427</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>54</v>
+        <v>166</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>40</v>
+        <v>167</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="M27" s="7">
         <v>14</v>
@@ -2471,13 +2489,13 @@
         <v>15020</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>38</v>
+        <v>126</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2498,7 +2516,7 @@
         <v>32</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -2513,7 +2531,7 @@
         <v>32</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>106</v>
+        <v>172</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -2528,7 +2546,7 @@
         <v>32</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>134</v>
+        <v>173</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2543,13 +2561,13 @@
         <v>2348</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>52</v>
+        <v>174</v>
       </c>
       <c r="H29" s="7">
         <v>1</v>
@@ -2564,7 +2582,7 @@
         <v>31</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="M29" s="7">
         <v>3</v>
@@ -2573,13 +2591,13 @@
         <v>3133</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>38</v>
+        <v>175</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2594,13 +2612,13 @@
         <v>10133</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="H30" s="7">
         <v>22</v>
@@ -2609,13 +2627,13 @@
         <v>19743</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>173</v>
+        <v>81</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="M30" s="7">
         <v>33</v>
@@ -2624,13 +2642,13 @@
         <v>29876</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>23</v>
+        <v>182</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2645,13 +2663,13 @@
         <v>2307</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>142</v>
+        <v>52</v>
       </c>
       <c r="H31" s="7">
         <v>2</v>
@@ -2660,13 +2678,13 @@
         <v>1673</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="M31" s="7">
         <v>4</v>
@@ -2675,19 +2693,19 @@
         <v>3980</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C32" s="7">
         <v>1</v>
@@ -2702,7 +2720,7 @@
         <v>31</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>
@@ -2711,13 +2729,13 @@
         <v>857</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>134</v>
+        <v>173</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>86</v>
+        <v>186</v>
       </c>
       <c r="M32" s="7">
         <v>2</v>
@@ -2732,13 +2750,13 @@
         <v>31</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>63</v>
+        <v>187</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C33" s="7">
         <v>0</v>
@@ -2753,7 +2771,7 @@
         <v>32</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="H33" s="7">
         <v>3</v>
@@ -2762,13 +2780,13 @@
         <v>2525</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>54</v>
+        <v>188</v>
       </c>
       <c r="M33" s="7">
         <v>3</v>
@@ -2777,19 +2795,19 @@
         <v>2525</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>110</v>
+        <v>187</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C34" s="7">
         <v>4</v>
@@ -2798,13 +2816,13 @@
         <v>4936</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>28</v>
+        <v>190</v>
       </c>
       <c r="H34" s="7">
         <v>6</v>
@@ -2813,13 +2831,13 @@
         <v>5890</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>167</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="M34" s="7">
         <v>10</v>
@@ -2828,19 +2846,19 @@
         <v>10826</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>131</v>
+        <v>194</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C35" s="7">
         <v>6</v>
@@ -2849,13 +2867,13 @@
         <v>7104</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>83</v>
+        <v>196</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="H35" s="7">
         <v>6</v>
@@ -2864,13 +2882,13 @@
         <v>5119</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>184</v>
+        <v>143</v>
       </c>
       <c r="M35" s="7">
         <v>12</v>
@@ -2879,13 +2897,13 @@
         <v>12223</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>185</v>
+        <v>59</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2900,13 +2918,13 @@
         <v>665090</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H36" s="7">
         <v>973</v>
@@ -2915,13 +2933,13 @@
         <v>694033</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M36" s="7">
         <v>1645</v>
@@ -2930,13 +2948,13 @@
         <v>1359123</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -2953,13 +2971,13 @@
         <v>2827981</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="H37" s="7">
         <v>4510</v>
@@ -2968,13 +2986,13 @@
         <v>3139482</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>93</v>
+        <v>203</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="M37" s="7">
         <v>7348</v>
@@ -2983,13 +3001,13 @@
         <v>5967463</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3004,13 +3022,13 @@
         <v>75149</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="H38" s="7">
         <v>101</v>
@@ -3019,13 +3037,13 @@
         <v>71083</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>200</v>
+        <v>146</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="M38" s="7">
         <v>163</v>
@@ -3034,13 +3052,13 @@
         <v>146231</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3061,7 +3079,7 @@
         <v>32</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H39" s="7">
         <v>1</v>
@@ -3070,13 +3088,13 @@
         <v>785</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="K39" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>134</v>
+        <v>39</v>
       </c>
       <c r="M39" s="7">
         <v>1</v>
@@ -3085,13 +3103,13 @@
         <v>785</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="P39" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>137</v>
+        <v>73</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3106,13 +3124,13 @@
         <v>7171</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>35</v>
+        <v>135</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>63</v>
+        <v>198</v>
       </c>
       <c r="H40" s="7">
         <v>10</v>
@@ -3121,13 +3139,13 @@
         <v>7864</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>136</v>
+        <v>216</v>
       </c>
       <c r="M40" s="7">
         <v>16</v>
@@ -3136,13 +3154,13 @@
         <v>15035</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>40</v>
+        <v>132</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3157,13 +3175,13 @@
         <v>193796</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>207</v>
+        <v>120</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="H41" s="7">
         <v>307</v>
@@ -3172,13 +3190,13 @@
         <v>241859</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="M41" s="7">
         <v>504</v>
@@ -3187,13 +3205,13 @@
         <v>435655</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3208,13 +3226,13 @@
         <v>29835</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>54</v>
+        <v>166</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>215</v>
+        <v>88</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H42" s="7">
         <v>34</v>
@@ -3223,13 +3241,13 @@
         <v>25792</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>218</v>
+        <v>128</v>
       </c>
       <c r="M42" s="7">
         <v>61</v>
@@ -3238,19 +3256,19 @@
         <v>55628</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>128</v>
+        <v>22</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>124</v>
+        <v>186</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C43" s="7">
         <v>4</v>
@@ -3259,13 +3277,13 @@
         <v>5567</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>186</v>
+        <v>228</v>
       </c>
       <c r="H43" s="7">
         <v>10</v>
@@ -3274,13 +3292,13 @@
         <v>9122</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="M43" s="7">
         <v>14</v>
@@ -3289,19 +3307,19 @@
         <v>14688</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>39</v>
+        <v>173</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>168</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C44" s="7">
         <v>4</v>
@@ -3310,13 +3328,13 @@
         <v>8553</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="H44" s="7">
         <v>9</v>
@@ -3325,13 +3343,13 @@
         <v>8135</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K44" s="7" t="s">
         <v>39</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="M44" s="7">
         <v>13</v>
@@ -3340,19 +3358,19 @@
         <v>16688</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>134</v>
+        <v>173</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>63</v>
+        <v>228</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C45" s="7">
         <v>42</v>
@@ -3361,13 +3379,13 @@
         <v>44773</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>74</v>
+        <v>231</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>221</v>
+        <v>79</v>
       </c>
       <c r="H45" s="7">
         <v>55</v>
@@ -3376,13 +3394,13 @@
         <v>44754</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>222</v>
+        <v>174</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>223</v>
+        <v>185</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>103</v>
+        <v>232</v>
       </c>
       <c r="M45" s="7">
         <v>97</v>
@@ -3391,19 +3409,19 @@
         <v>89527</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>224</v>
+        <v>153</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>218</v>
+        <v>188</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>187</v>
+        <v>233</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C46" s="7">
         <v>27</v>
@@ -3412,13 +3430,13 @@
         <v>30377</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>226</v>
+        <v>126</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>227</v>
+        <v>58</v>
       </c>
       <c r="H46" s="7">
         <v>30</v>
@@ -3427,13 +3445,13 @@
         <v>24205</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>63</v>
+        <v>198</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>229</v>
+        <v>152</v>
       </c>
       <c r="M46" s="7">
         <v>57</v>
@@ -3442,13 +3460,13 @@
         <v>54581</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>215</v>
+        <v>88</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>123</v>
+        <v>188</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3463,13 +3481,13 @@
         <v>3223201</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H47" s="7">
         <v>5067</v>
@@ -3478,13 +3496,13 @@
         <v>3573081</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M47" s="7">
         <v>8274</v>
@@ -3493,18 +3511,18 @@
         <v>6796282</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P78DS1_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P78DS1_2023-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{35CB6B81-FE44-4605-9E13-025E473AFC52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{78F67F73-2977-4201-AD10-E6541D0E7942}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F88E103D-8B67-4D0E-901A-C0897D7F1F34}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2928F4F8-0372-479C-8376-FCA250E6E6AF}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -1158,7 +1158,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D023601E-9097-4303-B33A-9D15543871BD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE543FC8-43BD-401B-AC53-729732258926}">
   <dimension ref="A1:Q48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
